--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1627968.48564995</v>
+        <v>-1628681.090123991</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>85.36037030571056</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176719</v>
       </c>
       <c r="E11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G11" t="n">
-        <v>140.0093422315384</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384191</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718763</v>
+        <v>16.53078872718761</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.1796882455086</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065495</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845967</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701508</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810614</v>
+        <v>9.188502199810586</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>67.24045268721804</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.846506480668509</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>90.942755067446</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134799</v>
+        <v>36.64054962134796</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437486</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084694</v>
+        <v>62.31927159084691</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245628</v>
+        <v>88.37493425245626</v>
       </c>
       <c r="X12" t="n">
-        <v>38.9832651149153</v>
+        <v>38.98326511491527</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947031</v>
+        <v>45.05463680947028</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650155</v>
+        <v>25.09353465650153</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412736</v>
+        <v>57.10576830412733</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605251</v>
+        <v>45.43126511605249</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.7793658598946</v>
+        <v>66.77936585989457</v>
       </c>
       <c r="W13" t="n">
         <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368722</v>
+        <v>43.58980608368719</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961311</v>
+        <v>38.81162348961308</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>132.3715368380912</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550874</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065497</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673095</v>
+        <v>71.82086528673105</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845967</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701508</v>
+        <v>110.9714999410324</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810614</v>
+        <v>9.188502199810728</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>151.2927432270384</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134799</v>
+        <v>110.7275087892338</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437486</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084694</v>
+        <v>62.31927159084705</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245628</v>
+        <v>88.3749342524564</v>
       </c>
       <c r="X15" t="n">
-        <v>38.9832651149153</v>
+        <v>38.98326511491541</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947031</v>
+        <v>45.05463680947042</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650155</v>
+        <v>25.09353465650167</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412736</v>
+        <v>57.10576830412747</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605251</v>
+        <v>45.43126511605263</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.7793658598946</v>
+        <v>66.77936585989471</v>
       </c>
       <c r="W16" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368722</v>
+        <v>43.58980608368734</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961311</v>
+        <v>38.81162348961323</v>
       </c>
     </row>
     <row r="17">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>46.08828904094935</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>40.92909803604379</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
         <v>52.45818464705465</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>182.8355713940235</v>
+        <v>3.947177430274561</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
         <v>52.45818464705465</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T24" t="n">
-        <v>184.2161009700264</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>116.1061577086111</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C26" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G26" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203128</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177608</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>54.56877786462285</v>
       </c>
       <c r="F27" t="n">
-        <v>31.34978261372428</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
         <v>52.45818464705465</v>
@@ -2682,25 +2682,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.50322227787052</v>
+        <v>1.503222277870634</v>
       </c>
       <c r="U27" t="n">
-        <v>23.7610810008974</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736947</v>
+        <v>27.18194424736959</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897882</v>
+        <v>53.23760690897893</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437946</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992957</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096065001</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209756</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D29" t="n">
         <v>124.3051829741945</v>
@@ -2804,13 +2804,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036442</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203113</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177477</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W29" t="n">
         <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8185907504171</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
         <v>52.45818464705465</v>
@@ -2916,28 +2916,28 @@
         <v>6.846506480668509</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>189.2774162150579</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870492</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089737</v>
       </c>
       <c r="V30" t="n">
-        <v>58.5317268610936</v>
+        <v>27.18194424736944</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X30" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064986</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
         <v>124.3051829741945</v>
@@ -3041,13 +3041,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036448</v>
+        <v>27.52983825036445</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177505</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
         <v>124.4294871577341</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9701989459033</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280576689302</v>
+        <v>229.5001611402649</v>
       </c>
       <c r="V33" t="n">
-        <v>171.3608404365669</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="35">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>47.06927791397863</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>6.846506480668509</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>21.21715827335791</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.86527574250329</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.458394474629</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>94.88764051754283</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>197.1287600489821</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.8353393367191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>139.6225283334879</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>124.6362339734942</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.2757829680481</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="C11" t="n">
-        <v>410.2757829680481</v>
+        <v>557.0721259406477</v>
       </c>
       <c r="D11" t="n">
-        <v>410.2757829680481</v>
+        <v>396.0190852157265</v>
       </c>
       <c r="E11" t="n">
-        <v>219.8087354422085</v>
+        <v>396.0190852157265</v>
       </c>
       <c r="F11" t="n">
-        <v>219.8087354422085</v>
+        <v>205.5520376898865</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055351</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055351</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567087</v>
+        <v>54.65969317756566</v>
       </c>
       <c r="K11" t="n">
-        <v>147.445910131805</v>
+        <v>224.588440985785</v>
       </c>
       <c r="L11" t="n">
-        <v>194.2192483620989</v>
+        <v>411.2651942658607</v>
       </c>
       <c r="M11" t="n">
-        <v>380.8960016421747</v>
+        <v>492.1855049890124</v>
       </c>
       <c r="N11" t="n">
-        <v>567.5727549222504</v>
+        <v>567.5727549222505</v>
       </c>
       <c r="O11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="P11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112275</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112275</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112275</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="U11" t="n">
-        <v>737.5517418112275</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="V11" t="n">
-        <v>593.5617071803217</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="W11" t="n">
-        <v>593.5617071803217</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="X11" t="n">
-        <v>410.2757829680481</v>
+        <v>643.2947222090423</v>
       </c>
       <c r="Y11" t="n">
-        <v>410.2757829680481</v>
+        <v>643.2947222090423</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.7960075639825</v>
+        <v>92.28595469639868</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5146922106384</v>
+        <v>83.00463934305465</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5146922106384</v>
+        <v>83.00463934305465</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R12" t="n">
-        <v>611.2645134234347</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S12" t="n">
-        <v>519.4031446684387</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="T12" t="n">
-        <v>482.3924884852589</v>
+        <v>519.8561413815202</v>
       </c>
       <c r="U12" t="n">
-        <v>422.8991467232641</v>
+        <v>329.3890938556802</v>
       </c>
       <c r="V12" t="n">
-        <v>359.9503875405904</v>
+        <v>266.4403346730065</v>
       </c>
       <c r="W12" t="n">
-        <v>270.682777184574</v>
+        <v>177.1727243169901</v>
       </c>
       <c r="X12" t="n">
-        <v>231.3057417149626</v>
+        <v>137.7956888473788</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.7960075639825</v>
+        <v>92.28595469639868</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703786</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="C13" t="n">
-        <v>27.54433520609499</v>
+        <v>27.54433520609505</v>
       </c>
       <c r="D13" t="n">
-        <v>60.35986428920114</v>
+        <v>60.35986428920123</v>
       </c>
       <c r="E13" t="n">
-        <v>96.64683732040815</v>
+        <v>96.64683732040827</v>
       </c>
       <c r="F13" t="n">
-        <v>135.6555767554557</v>
+        <v>135.6555767554559</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1883116273058</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="H13" t="n">
-        <v>145.1883116273058</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="I13" t="n">
-        <v>158.5347134762162</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="J13" t="n">
-        <v>216.0544045428279</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="K13" t="n">
-        <v>216.0544045428279</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="L13" t="n">
-        <v>216.0544045428279</v>
+        <v>289.926551082564</v>
       </c>
       <c r="M13" t="n">
-        <v>308.4176569022806</v>
+        <v>289.926551082564</v>
       </c>
       <c r="N13" t="n">
-        <v>468.6318884260452</v>
+        <v>349.9613012161978</v>
       </c>
       <c r="O13" t="n">
-        <v>468.6318884260452</v>
+        <v>349.9613012161978</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260452</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.245920161285</v>
+        <v>519.2459201612847</v>
       </c>
       <c r="R13" t="n">
-        <v>493.898915457748</v>
+        <v>493.8989154577479</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111548</v>
+        <v>436.2163212111546</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272634</v>
+        <v>390.3261544272632</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791728</v>
+        <v>278.8848418791727</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701883</v>
+        <v>211.4309369701882</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980445</v>
+        <v>98.31875740980439</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456482</v>
+        <v>54.2886502545648</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.8466539577469</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="C14" t="n">
-        <v>176.1380308889677</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="D14" t="n">
-        <v>15.08499016404652</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="E14" t="n">
-        <v>15.08499016404652</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="F14" t="n">
-        <v>15.08499016404652</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="G14" t="n">
-        <v>15.08499016404652</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K14" t="n">
-        <v>113.2989376389472</v>
+        <v>185.0137379722657</v>
       </c>
       <c r="L14" t="n">
-        <v>299.9756909190229</v>
+        <v>231.7870762025597</v>
       </c>
       <c r="M14" t="n">
-        <v>380.8960016421747</v>
+        <v>418.4638294826354</v>
       </c>
       <c r="N14" t="n">
-        <v>567.5727549222504</v>
+        <v>493.8510794158735</v>
       </c>
       <c r="O14" t="n">
-        <v>754.2495082023262</v>
+        <v>680.5278326959493</v>
       </c>
       <c r="P14" t="n">
-        <v>754.2495082023262</v>
+        <v>680.5278326959493</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023262</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="T14" t="n">
-        <v>709.6689413733818</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="U14" t="n">
-        <v>637.1226128009263</v>
+        <v>632.0267268566295</v>
       </c>
       <c r="V14" t="n">
-        <v>493.1325781700205</v>
+        <v>488.0366922257235</v>
       </c>
       <c r="W14" t="n">
-        <v>493.1325781700205</v>
+        <v>488.0366922257235</v>
       </c>
       <c r="X14" t="n">
-        <v>309.8466539577469</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8466539577469</v>
+        <v>375.9442680428625</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>230.17532357203</v>
+        <v>24.3663055173907</v>
       </c>
       <c r="C15" t="n">
-        <v>220.8940082186859</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D15" t="n">
-        <v>220.8940082186859</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
@@ -5367,40 +5367,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S15" t="n">
-        <v>563.7824606764863</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="T15" t="n">
-        <v>526.7718044933065</v>
+        <v>451.9364922025128</v>
       </c>
       <c r="U15" t="n">
-        <v>467.2784627313117</v>
+        <v>261.4694446766728</v>
       </c>
       <c r="V15" t="n">
-        <v>404.329703548638</v>
+        <v>198.520685493999</v>
       </c>
       <c r="W15" t="n">
-        <v>315.0620931926215</v>
+        <v>109.2530751379824</v>
       </c>
       <c r="X15" t="n">
-        <v>275.6850577230101</v>
+        <v>69.87603966837092</v>
       </c>
       <c r="Y15" t="n">
-        <v>230.17532357203</v>
+        <v>24.3663055173907</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.79059153703776</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404652</v>
+        <v>27.54433520609477</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404652</v>
+        <v>27.54433520609477</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404652</v>
+        <v>27.54433520609477</v>
       </c>
       <c r="F16" t="n">
-        <v>54.09372959909409</v>
+        <v>66.55307464114222</v>
       </c>
       <c r="G16" t="n">
-        <v>54.09372959909409</v>
+        <v>66.55307464114222</v>
       </c>
       <c r="H16" t="n">
-        <v>54.09372959909409</v>
+        <v>78.9346004817499</v>
       </c>
       <c r="I16" t="n">
-        <v>67.44013144800454</v>
+        <v>78.9346004817499</v>
       </c>
       <c r="J16" t="n">
-        <v>67.44013144800454</v>
+        <v>136.4542915483615</v>
       </c>
       <c r="K16" t="n">
-        <v>83.43928493473862</v>
+        <v>136.4542915483615</v>
       </c>
       <c r="L16" t="n">
-        <v>228.1775243899967</v>
+        <v>198.3562544639989</v>
       </c>
       <c r="M16" t="n">
-        <v>379.7825711421972</v>
+        <v>349.9613012161993</v>
       </c>
       <c r="N16" t="n">
-        <v>379.7825711421972</v>
+        <v>349.9613012161993</v>
       </c>
       <c r="O16" t="n">
-        <v>519.245920161285</v>
+        <v>349.9613012161993</v>
       </c>
       <c r="P16" t="n">
-        <v>519.245920161285</v>
+        <v>468.6318884260462</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.245920161285</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="R16" t="n">
-        <v>493.898915457748</v>
+        <v>493.8989154577488</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111548</v>
+        <v>436.2163212111554</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272634</v>
+        <v>390.3261544272639</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791728</v>
+        <v>278.8848418791732</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701883</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980445</v>
+        <v>98.31875740980468</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456482</v>
+        <v>54.28865025456494</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.533537934041</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267293</v>
       </c>
       <c r="H17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897389</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J17" t="n">
-        <v>70.94848926897389</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="K17" t="n">
-        <v>70.94848926897389</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L17" t="n">
-        <v>117.7218274992679</v>
+        <v>341.1148358068422</v>
       </c>
       <c r="M17" t="n">
-        <v>247.2203116125375</v>
+        <v>422.0351465299939</v>
       </c>
       <c r="N17" t="n">
-        <v>322.6075615457756</v>
+        <v>497.422396463232</v>
       </c>
       <c r="O17" t="n">
-        <v>509.2843148258513</v>
+        <v>531.6990800966615</v>
       </c>
       <c r="P17" t="n">
-        <v>509.2843148258513</v>
+        <v>531.6990800966615</v>
       </c>
       <c r="Q17" t="n">
-        <v>509.2843148258513</v>
+        <v>531.6990800966615</v>
       </c>
       <c r="R17" t="n">
-        <v>610.8228270287664</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="S17" t="n">
-        <v>680.0389287085437</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023262</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557697</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>556.8667975646999</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="C18" t="n">
-        <v>367.4545232976636</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="D18" t="n">
-        <v>206.6744070586954</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="E18" t="n">
-        <v>206.6744070586954</v>
+        <v>326.7615858365562</v>
       </c>
       <c r="F18" t="n">
-        <v>206.6744070586954</v>
+        <v>326.7615858365562</v>
       </c>
       <c r="G18" t="n">
-        <v>56.42751343277763</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H18" t="n">
-        <v>56.42751343277763</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I18" t="n">
-        <v>56.42751343277763</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
         <v>53.07705719635118</v>
@@ -5604,40 +5604,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905399</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905399</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S18" t="n">
-        <v>556.8667975646999</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="T18" t="n">
-        <v>556.8667975646999</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="U18" t="n">
-        <v>556.8667975646999</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="V18" t="n">
-        <v>556.8667975646999</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="W18" t="n">
-        <v>556.8667975646999</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="X18" t="n">
-        <v>556.8667975646999</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="Y18" t="n">
-        <v>556.8667975646999</v>
+        <v>373.3154131506464</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340404</v>
+        <v>463.5335379340409</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844266</v>
+        <v>410.219491884427</v>
       </c>
       <c r="D20" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F20" t="n">
         <v>187.8189404019085</v>
@@ -5744,58 +5744,58 @@
         <v>65.17929883267293</v>
       </c>
       <c r="H20" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="J20" t="n">
-        <v>201.7617434441223</v>
+        <v>181.8753237902548</v>
       </c>
       <c r="K20" t="n">
-        <v>388.438496724198</v>
+        <v>181.8753237902548</v>
       </c>
       <c r="L20" t="n">
-        <v>435.211834954492</v>
+        <v>228.6486620205488</v>
       </c>
       <c r="M20" t="n">
-        <v>523.5736587329088</v>
+        <v>309.5689727437006</v>
       </c>
       <c r="N20" t="n">
-        <v>598.9609086661469</v>
+        <v>384.9562226769386</v>
       </c>
       <c r="O20" t="n">
-        <v>633.2375922995765</v>
+        <v>419.2329063103682</v>
       </c>
       <c r="P20" t="n">
-        <v>633.2375922995765</v>
+        <v>419.2329063103682</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.2375922995765</v>
+        <v>605.909659590444</v>
       </c>
       <c r="R20" t="n">
-        <v>633.2375922995765</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995765</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933589</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059205</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075475</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="C21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="D21" t="n">
-        <v>218.3199490900195</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="E21" t="n">
-        <v>218.3199490900195</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="F21" t="n">
-        <v>218.3199490900195</v>
+        <v>453.765412343097</v>
       </c>
       <c r="G21" t="n">
-        <v>68.07305546410173</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I21" t="n">
         <v>68.07305546410173</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
         <v>53.07705719635118</v>
@@ -5841,40 +5841,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023262</v>
+        <v>618.1801765352211</v>
       </c>
       <c r="S21" t="n">
-        <v>569.5671128548277</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="T21" t="n">
-        <v>569.5671128548277</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="U21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="V21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="W21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="X21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
       <c r="Y21" t="n">
-        <v>379.1000653289877</v>
+        <v>614.1931286258529</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340406</v>
+        <v>463.5335379340409</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844269</v>
+        <v>410.2194918844272</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438551</v>
+        <v>369.4643728438553</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372139</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019083</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G23" t="n">
         <v>65.17929883267291</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I23" t="n">
         <v>70.94848926897387</v>
       </c>
       <c r="J23" t="n">
-        <v>70.94848926897387</v>
+        <v>257.6252425490495</v>
       </c>
       <c r="K23" t="n">
-        <v>70.94848926897387</v>
+        <v>326.6639080996854</v>
       </c>
       <c r="L23" t="n">
-        <v>117.7218274992678</v>
+        <v>373.4372463299794</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6421382224196</v>
+        <v>454.3575570531311</v>
       </c>
       <c r="N23" t="n">
-        <v>274.0293881556577</v>
+        <v>529.7448069863692</v>
       </c>
       <c r="O23" t="n">
-        <v>460.7061414357332</v>
+        <v>564.0214906197988</v>
       </c>
       <c r="P23" t="n">
-        <v>460.7061414357332</v>
+        <v>564.0214906197988</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4829784168835</v>
+        <v>564.0214906197988</v>
       </c>
       <c r="R23" t="n">
-        <v>564.0214906197986</v>
+        <v>564.0214906197988</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995759</v>
+        <v>633.2375922995761</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933584</v>
+        <v>707.4481717933586</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023256</v>
+        <v>754.2495082023258</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557692</v>
+        <v>730.5573952557694</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338444</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059202</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075478</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241.6362593426873</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="C24" t="n">
-        <v>241.6362593426873</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="D24" t="n">
-        <v>241.6362593426873</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="E24" t="n">
-        <v>68.07305546410171</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410171</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410171</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410171</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I24" t="n">
         <v>68.07305546410171</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635117</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486673</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287427</v>
+        <v>538.8471199287429</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110296</v>
+        <v>670.5904072110299</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023256</v>
+        <v>754.2495082023258</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023256</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352204</v>
+        <v>611.2645134234343</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352204</v>
+        <v>420.7974658975945</v>
       </c>
       <c r="T24" t="n">
-        <v>432.1033068685271</v>
+        <v>420.7974658975945</v>
       </c>
       <c r="U24" t="n">
-        <v>432.1033068685271</v>
+        <v>420.7974658975945</v>
       </c>
       <c r="V24" t="n">
-        <v>432.1033068685271</v>
+        <v>420.7974658975945</v>
       </c>
       <c r="W24" t="n">
-        <v>432.1033068685271</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="X24" t="n">
-        <v>432.1033068685271</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="Y24" t="n">
-        <v>241.6362593426873</v>
+        <v>303.5185187171792</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.892440079273</v>
+        <v>882.8924400792737</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962481</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693955</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577065</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847215</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946302</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191344</v>
+        <v>926.3413643191336</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
         <v>1458.669911688507</v>
@@ -6257,19 +6257,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.576174106642</v>
+        <v>529.7220615421005</v>
       </c>
       <c r="C27" t="n">
-        <v>120.576174106642</v>
+        <v>529.7220615421005</v>
       </c>
       <c r="D27" t="n">
-        <v>120.576174106642</v>
+        <v>529.7220615421005</v>
       </c>
       <c r="E27" t="n">
-        <v>120.576174106642</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="F27" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="G27" t="n">
-        <v>88.90972702207205</v>
+        <v>324.3551902751495</v>
       </c>
       <c r="H27" t="n">
-        <v>88.90972702207205</v>
+        <v>197.3513637686087</v>
       </c>
       <c r="I27" t="n">
         <v>88.90972702207205</v>
@@ -6306,13 +6306,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
         <v>577.9583061004876</v>
@@ -6330,25 +6330,25 @@
         <v>650.375699595179</v>
       </c>
       <c r="S27" t="n">
-        <v>456.8530209153083</v>
+        <v>650.375699595179</v>
       </c>
       <c r="T27" t="n">
-        <v>455.334614574025</v>
+        <v>648.8572932538955</v>
       </c>
       <c r="U27" t="n">
-        <v>431.3335226539266</v>
+        <v>624.856201333797</v>
       </c>
       <c r="V27" t="n">
-        <v>403.8770133131493</v>
+        <v>597.3996919930196</v>
       </c>
       <c r="W27" t="n">
-        <v>350.1016527990294</v>
+        <v>543.6243314788994</v>
       </c>
       <c r="X27" t="n">
-        <v>130.5936584157257</v>
+        <v>539.7395458511843</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.576174106642</v>
+        <v>529.7220615421005</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>106.9945888232666</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>173.8387932615975</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="G28" t="n">
-        <v>218.1574822034902</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="H28" t="n">
-        <v>218.1574822034902</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="I28" t="n">
-        <v>266.2898381224434</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="J28" t="n">
-        <v>266.2898381224434</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="K28" t="n">
-        <v>266.2898381224434</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="L28" t="n">
-        <v>266.2898381224434</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224434</v>
+        <v>61.34629776853095</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398212</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063871</v>
+        <v>39.63307197063882</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792736</v>
+        <v>882.8924400792737</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471547</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693963</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577071</v>
+        <v>198.6295596577074</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K29" t="n">
         <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946306</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6491,7 +6491,7 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
         <v>1735.75648745189</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="C30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="D30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="E30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="F30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
       <c r="G30" t="n">
-        <v>88.90972702207205</v>
+        <v>324.3551902751495</v>
       </c>
       <c r="H30" t="n">
-        <v>88.90972702207205</v>
+        <v>197.3513637686087</v>
       </c>
       <c r="I30" t="n">
         <v>88.90972702207205</v>
@@ -6564,28 +6564,28 @@
         <v>786.4450312622841</v>
       </c>
       <c r="R30" t="n">
-        <v>650.375699595179</v>
+        <v>786.4450312622841</v>
       </c>
       <c r="S30" t="n">
-        <v>456.8530209153083</v>
+        <v>595.2557219541449</v>
       </c>
       <c r="T30" t="n">
-        <v>455.334614574025</v>
+        <v>593.7373156128615</v>
       </c>
       <c r="U30" t="n">
-        <v>215.7103138983379</v>
+        <v>569.7362236927631</v>
       </c>
       <c r="V30" t="n">
-        <v>156.5873574729908</v>
+        <v>542.2797143519859</v>
       </c>
       <c r="W30" t="n">
-        <v>102.8119969588708</v>
+        <v>488.5043538378659</v>
       </c>
       <c r="X30" t="n">
-        <v>98.92721133115576</v>
+        <v>484.619568210151</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.90972702207205</v>
+        <v>474.6020839010673</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.63328867818971</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>38.63328867818971</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>38.63328867818971</v>
+        <v>47.50518158631232</v>
       </c>
       <c r="E31" t="n">
-        <v>38.63328867818971</v>
+        <v>47.50518158631232</v>
       </c>
       <c r="F31" t="n">
-        <v>38.63328867818971</v>
+        <v>121.2998750914026</v>
       </c>
       <c r="G31" t="n">
-        <v>38.63328867818971</v>
+        <v>121.2998750914026</v>
       </c>
       <c r="H31" t="n">
-        <v>38.63328867818971</v>
+        <v>121.2998750914026</v>
       </c>
       <c r="I31" t="n">
-        <v>86.76564459714282</v>
+        <v>121.2998750914026</v>
       </c>
       <c r="J31" t="n">
-        <v>86.76564459714282</v>
+        <v>121.2998750914026</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76564459714282</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398184</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063874</v>
+        <v>39.63307197063868</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6686,31 +6686,31 @@
         <v>597.7236336471542</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662766</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O32" t="n">
         <v>1458.669911688507</v>
@@ -6719,19 +6719,19 @@
         <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6740,7 +6740,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="C33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="D33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="E33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="F33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="G33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
       <c r="H33" t="n">
-        <v>88.90972702207205</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I33" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004876</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S33" t="n">
-        <v>786.4450312622841</v>
+        <v>599.8380156941998</v>
       </c>
       <c r="T33" t="n">
-        <v>569.3034161654122</v>
+        <v>598.3196093529165</v>
       </c>
       <c r="U33" t="n">
-        <v>329.6791154897251</v>
+        <v>366.5012647667903</v>
       </c>
       <c r="V33" t="n">
-        <v>156.5873574729908</v>
+        <v>339.044755426013</v>
       </c>
       <c r="W33" t="n">
-        <v>102.8119969588708</v>
+        <v>285.269394911893</v>
       </c>
       <c r="X33" t="n">
-        <v>98.92721133115576</v>
+        <v>281.384609284178</v>
       </c>
       <c r="Y33" t="n">
-        <v>88.90972702207205</v>
+        <v>271.3671249750943</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201685</v>
+        <v>80.24035066390957</v>
       </c>
       <c r="H34" t="n">
-        <v>83.08914163266729</v>
+        <v>80.24035066390957</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8332968425539</v>
+        <v>80.24035066390957</v>
       </c>
       <c r="J34" t="n">
-        <v>112.8332968425539</v>
+        <v>172.545995800564</v>
       </c>
       <c r="K34" t="n">
-        <v>112.8332968425539</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="L34" t="n">
-        <v>112.8332968425539</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8332968425539</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="N34" t="n">
-        <v>112.8332968425539</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="O34" t="n">
-        <v>112.8332968425539</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224436</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177467</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757517</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063875</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589363</v>
@@ -6932,55 +6932,55 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516578</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9424160029269</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K35" t="n">
-        <v>244.9424160029269</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L35" t="n">
-        <v>291.7157542332209</v>
+        <v>325.4638203181469</v>
       </c>
       <c r="M35" t="n">
-        <v>372.6360649563726</v>
+        <v>406.3841310412987</v>
       </c>
       <c r="N35" t="n">
-        <v>448.0233148896107</v>
+        <v>664.2379415711814</v>
       </c>
       <c r="O35" t="n">
-        <v>482.2999985230402</v>
+        <v>922.091752101064</v>
       </c>
       <c r="P35" t="n">
-        <v>736.7458624460733</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5121113040016</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091847</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912302</v>
+        <v>992.7342642024653</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.143507287281</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426625</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>200.8285633645663</v>
+        <v>592.8241881713025</v>
       </c>
       <c r="C36" t="n">
-        <v>200.8285633645663</v>
+        <v>592.8241881713025</v>
       </c>
       <c r="D36" t="n">
-        <v>200.8285633645663</v>
+        <v>432.0440719323342</v>
       </c>
       <c r="E36" t="n">
-        <v>200.8285633645663</v>
+        <v>384.4993467666992</v>
       </c>
       <c r="F36" t="n">
-        <v>200.8285633645663</v>
+        <v>224.0716304839433</v>
       </c>
       <c r="G36" t="n">
-        <v>200.8285633645663</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="H36" t="n">
-        <v>73.82473685802553</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="I36" t="n">
-        <v>73.82473685802553</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="J36" t="n">
         <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
@@ -7038,28 +7038,28 @@
         <v>771.3600410982376</v>
       </c>
       <c r="R36" t="n">
-        <v>635.2907094311324</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="S36" t="n">
-        <v>441.7680307512618</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="T36" t="n">
-        <v>441.7680307512618</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="U36" t="n">
-        <v>441.7680307512618</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="V36" t="n">
-        <v>441.7680307512618</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="W36" t="n">
-        <v>420.33655774787</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="X36" t="n">
-        <v>200.8285633645663</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.8285633645663</v>
+        <v>771.3600410982376</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
-        <v>37.60118863100841</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
+        <v>39.27205564330168</v>
+      </c>
+      <c r="V37" t="n">
+        <v>39.27205564330168</v>
+      </c>
+      <c r="W37" t="n">
         <v>20.83667155797032</v>
       </c>
-      <c r="V37" t="n">
-        <v>47.51782660177363</v>
-      </c>
-      <c r="W37" t="n">
-        <v>29.08244251644227</v>
-      </c>
       <c r="X37" t="n">
-        <v>29.08244251644227</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.60118863100841</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590286</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589363</v>
@@ -7172,34 +7172,34 @@
         <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1901826957315</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K38" t="n">
-        <v>472.0439932256141</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L38" t="n">
-        <v>518.8173314559081</v>
+        <v>325.4638203181469</v>
       </c>
       <c r="M38" t="n">
-        <v>776.6711419857907</v>
+        <v>583.3176308480296</v>
       </c>
       <c r="N38" t="n">
-        <v>852.0583919190287</v>
+        <v>841.1714413779123</v>
       </c>
       <c r="O38" t="n">
-        <v>886.3350755524583</v>
+        <v>875.4481250113419</v>
       </c>
       <c r="P38" t="n">
-        <v>886.3350755524583</v>
+        <v>875.4481250113419</v>
       </c>
       <c r="Q38" t="n">
-        <v>1020.14350728728</v>
+        <v>875.4481250113419</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.14350728728</v>
+        <v>951.875371416525</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.14350728728</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.05412180292313</v>
+        <v>210.2489458250066</v>
       </c>
       <c r="C39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>56.05412180292313</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
         <v>20.83667155797032</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100239</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="T39" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="U39" t="n">
-        <v>538.6514035343369</v>
+        <v>531.7357404225505</v>
       </c>
       <c r="V39" t="n">
-        <v>538.6514035343369</v>
+        <v>531.7357404225505</v>
       </c>
       <c r="W39" t="n">
-        <v>275.5621161862268</v>
+        <v>531.7357404225505</v>
       </c>
       <c r="X39" t="n">
-        <v>56.05412180292313</v>
+        <v>435.889638889679</v>
       </c>
       <c r="Y39" t="n">
-        <v>56.05412180292313</v>
+        <v>210.2489458250066</v>
       </c>
     </row>
     <row r="40">
@@ -7327,7 +7327,7 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J40" t="n">
         <v>56.03657271633976</v>
@@ -7412,25 +7412,25 @@
         <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673108</v>
+        <v>190.670379421188</v>
       </c>
       <c r="L41" t="n">
-        <v>707.999806166818</v>
+        <v>315.60246166786</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.506963659183</v>
+        <v>635.1096191602251</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.894213592421</v>
+        <v>949.0837158626764</v>
       </c>
       <c r="O41" t="n">
-        <v>1137.170897225851</v>
+        <v>1221.947246265319</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167331</v>
+        <v>1221.947246265319</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="R41" t="n">
         <v>1371.755396567412</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.3198217230808</v>
+        <v>310.0739422157445</v>
       </c>
       <c r="C42" t="n">
-        <v>305.3198217230808</v>
+        <v>310.0739422157445</v>
       </c>
       <c r="D42" t="n">
-        <v>305.3198217230808</v>
+        <v>310.0739422157445</v>
       </c>
       <c r="E42" t="n">
-        <v>305.3198217230808</v>
+        <v>136.510738337159</v>
       </c>
       <c r="F42" t="n">
-        <v>305.3198217230808</v>
+        <v>136.510738337159</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0729280971631</v>
+        <v>136.510738337159</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062233</v>
+        <v>136.510738337159</v>
       </c>
       <c r="I42" t="n">
         <v>28.06910159062233</v>
@@ -7530,10 +7530,10 @@
         <v>509.193901861181</v>
       </c>
       <c r="X42" t="n">
-        <v>509.193901861181</v>
+        <v>310.0739422157445</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.3198217230808</v>
+        <v>310.0739422157445</v>
       </c>
     </row>
     <row r="43">
@@ -7558,40 +7558,40 @@
         <v>28.06910159062233</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062233</v>
+        <v>50.2481937132315</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062233</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062233</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06910159062233</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085602</v>
+        <v>124.6702134917428</v>
       </c>
       <c r="S43" t="n">
         <v>130.1759968085602</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062233</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>76.83517578543365</v>
+        <v>223.154110339578</v>
       </c>
       <c r="L44" t="n">
-        <v>362.1953607849409</v>
+        <v>508.5142953390853</v>
       </c>
       <c r="M44" t="n">
-        <v>681.7025182773059</v>
+        <v>589.434606062237</v>
       </c>
       <c r="N44" t="n">
-        <v>995.6766149797573</v>
+        <v>903.4087027646883</v>
       </c>
       <c r="O44" t="n">
-        <v>1029.953298613187</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="P44" t="n">
-        <v>1253.646929229024</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.455079531117</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.455079531117</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>314.3920037051906</v>
+        <v>533.1170336580766</v>
       </c>
       <c r="C45" t="n">
-        <v>314.3920037051906</v>
+        <v>533.1170336580766</v>
       </c>
       <c r="D45" t="n">
-        <v>314.3920037051906</v>
+        <v>372.3369174191083</v>
       </c>
       <c r="E45" t="n">
-        <v>314.3920037051906</v>
+        <v>231.3040605165953</v>
       </c>
       <c r="F45" t="n">
-        <v>153.9642874224347</v>
+        <v>231.3040605165953</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067754</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067754</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067754</v>
       </c>
       <c r="J45" t="n">
         <v>28.06910159062233</v>
@@ -7746,31 +7746,31 @@
         <v>785.508134242676</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="R45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="S45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="T45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="U45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="V45" t="n">
-        <v>785.508134242676</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="W45" t="n">
-        <v>759.5406911531666</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="X45" t="n">
-        <v>540.0326967698629</v>
+        <v>533.1170336580766</v>
       </c>
       <c r="Y45" t="n">
-        <v>314.3920037051906</v>
+        <v>533.1170336580766</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7810,7 @@
         <v>28.06910159062233</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M46" t="n">
         <v>130.1759968085602</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099997</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041433</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,25 +23258,25 @@
         <v>195.757591053278</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566235</v>
+        <v>86.51547775091292</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.586885686499301</v>
+        <v>193.1492627370808</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154582</v>
+        <v>36.30722326487657</v>
       </c>
       <c r="G11" t="n">
-        <v>100.4988453895111</v>
+        <v>51.9458105704679</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>168.688308049446</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384189</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550863</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065497</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673094</v>
+        <v>71.82086528673091</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
         <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
         <v>203.9559180938946</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.757591053278</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C14" t="n">
-        <v>39.50431121853229</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370808</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154582</v>
+        <v>36.30722326487671</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210495</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384191</v>
+        <v>62.66716559384203</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718764</v>
+        <v>16.53078872718775</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550863</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065507</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>70.48156502911849</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286627.8984323495</v>
+        <v>286627.8984323496</v>
       </c>
       <c r="C2" t="n">
         <v>286627.8984323496</v>
@@ -26320,22 +26320,22 @@
         <v>286627.8984323496</v>
       </c>
       <c r="E2" t="n">
-        <v>246996.7789316555</v>
+        <v>246996.7789316556</v>
       </c>
       <c r="F2" t="n">
-        <v>246996.7789316555</v>
+        <v>246996.7789316554</v>
       </c>
       <c r="G2" t="n">
+        <v>287208.5283790241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>287208.5283790244</v>
+      </c>
+      <c r="I2" t="n">
         <v>287208.5283790243</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>287208.5283790242</v>
-      </c>
-      <c r="I2" t="n">
-        <v>287208.5283790242</v>
-      </c>
-      <c r="J2" t="n">
-        <v>287208.5283790241</v>
       </c>
       <c r="K2" t="n">
         <v>287208.5283790241</v>
@@ -26347,10 +26347,10 @@
         <v>287208.5283790242</v>
       </c>
       <c r="N2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.5283790243</v>
       </c>
       <c r="O2" t="n">
-        <v>287208.5283790238</v>
+        <v>287208.5283790239</v>
       </c>
       <c r="P2" t="n">
         <v>287208.528379024</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400473</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400473</v>
+        <v>95275.95397400481</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145963</v>
+        <v>46874.16014145961</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660022</v>
+        <v>72403.48181660014</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>319543.8970593064</v>
       </c>
       <c r="F4" t="n">
-        <v>319543.8970593064</v>
+        <v>319543.8970593063</v>
       </c>
       <c r="G4" t="n">
         <v>390006.8734640137</v>
@@ -26439,16 +26439,16 @@
         <v>390006.8734640137</v>
       </c>
       <c r="J4" t="n">
-        <v>390873.6905933486</v>
+        <v>390873.6905933485</v>
       </c>
       <c r="K4" t="n">
-        <v>390873.6905933486</v>
+        <v>390873.6905933487</v>
       </c>
       <c r="L4" t="n">
         <v>390873.6905933486</v>
       </c>
       <c r="M4" t="n">
-        <v>390048.6636155473</v>
+        <v>390048.6636155474</v>
       </c>
       <c r="N4" t="n">
         <v>390048.6636155473</v>
@@ -26479,7 +26479,7 @@
         <v>28663.94612301865</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301865</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
         <v>38676.1388413194</v>
@@ -26491,16 +26491,16 @@
         <v>38676.13884131939</v>
       </c>
       <c r="J5" t="n">
+        <v>47453.77647951488</v>
+      </c>
+      <c r="K5" t="n">
         <v>47453.7764795149</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>47453.77647951489</v>
       </c>
-      <c r="L5" t="n">
-        <v>47453.7764795149</v>
-      </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
         <v>40915.01366600499</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177233.8370753458</v>
+        <v>-177238.3034595509</v>
       </c>
       <c r="C6" t="n">
-        <v>-177233.8370753457</v>
+        <v>-177238.3034595509</v>
       </c>
       <c r="D6" t="n">
-        <v>-177233.8370753457</v>
+        <v>-177238.3034595509</v>
       </c>
       <c r="E6" t="n">
-        <v>-381523.9064348759</v>
+        <v>-381833.2275844709</v>
       </c>
       <c r="F6" t="n">
-        <v>-101211.0642506695</v>
+        <v>-101520.3854002645</v>
       </c>
       <c r="G6" t="n">
-        <v>-236750.4379003135</v>
+        <v>-236750.4379003138</v>
       </c>
       <c r="H6" t="n">
-        <v>-141474.4839263089</v>
+        <v>-141474.4839263087</v>
       </c>
       <c r="I6" t="n">
-        <v>-141474.4839263089</v>
+        <v>-141474.4839263088</v>
       </c>
       <c r="J6" t="n">
-        <v>-294763.9422181807</v>
+        <v>-294763.9422181805</v>
       </c>
       <c r="K6" t="n">
         <v>-151118.9386938395</v>
       </c>
       <c r="L6" t="n">
-        <v>-246394.8926678441</v>
+        <v>-246394.8926678442</v>
       </c>
       <c r="M6" t="n">
         <v>-190629.3090439877</v>
       </c>
       <c r="N6" t="n">
-        <v>-143755.1489025282</v>
+        <v>-143755.148902528</v>
       </c>
       <c r="O6" t="n">
-        <v>-219431.0971773864</v>
+        <v>-219431.0971773862</v>
       </c>
       <c r="P6" t="n">
         <v>-147027.615360786</v>
@@ -26695,7 +26695,7 @@
         <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26707,13 +26707,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
+        <v>213.4669766680327</v>
+      </c>
+      <c r="K2" t="n">
         <v>213.4669766680328</v>
       </c>
-      <c r="K2" t="n">
-        <v>213.4669766680327</v>
-      </c>
       <c r="L2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>188.5623770505816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>188.5623770505816</v>
+      </c>
+      <c r="G4" t="n">
+        <v>188.5623770505816</v>
+      </c>
+      <c r="H4" t="n">
+        <v>188.5623770505816</v>
+      </c>
+      <c r="I4" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="F4" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="G4" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="H4" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188.5623770505814</v>
       </c>
       <c r="J4" t="n">
         <v>449.0207715252105</v>
@@ -26817,7 +26817,7 @@
         <v>449.0207715252105</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
         <v>260.458394474629</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052685</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682454</v>
+        <v>58.59270017682451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406681</v>
+        <v>63.30917227406673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052685</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,19 +28111,19 @@
         <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
+        <v>116.727547426431</v>
+      </c>
+      <c r="K11" t="n">
         <v>178.3296493245553</v>
       </c>
-      <c r="K11" t="n">
-        <v>38.80579908907749</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>153.9394642895416</v>
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>104.5871191525816</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,10 +28187,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>100.6446968256259</v>
+        <v>3.025074842490326</v>
       </c>
       <c r="T12" t="n">
         <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245553</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V12" t="n">
         <v>178.3296493245553</v>
@@ -28266,28 +28266,28 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245553</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245553</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587065</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055727</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="M13" t="n">
-        <v>118.4894529682444</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N13" t="n">
-        <v>178.3296493245553</v>
+        <v>77.13825398098886</v>
       </c>
       <c r="O13" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460878</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q13" t="n">
         <v>178.3296493245553</v>
@@ -28324,43 +28324,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8904570686779</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>153.9394642895416</v>
@@ -28369,31 +28369,31 @@
         <v>15.0436526801775</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.67545097688968</v>
+        <v>164.14178987222</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>20.53482861276132</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490354</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245553</v>
+        <v>104.2426901566695</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245553</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28494,64 +28494,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245553</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
-        <v>83.17322965358186</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L16" t="n">
-        <v>178.3296493245553</v>
+        <v>94.65664271887786</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
         <v>16.49709222984362</v>
       </c>
       <c r="O16" t="n">
-        <v>178.3296493245553</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P16" t="n">
-        <v>58.46036931460878</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28582,25 +28582,25 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802784</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
         <v>6.684449518273198</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>93.51490316406658</v>
       </c>
       <c r="M17" t="n">
-        <v>49.06886201022009</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>15.0436526801775</v>
@@ -28612,13 +28612,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T17" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>125.7392827988503</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28661,10 +28661,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.52908661101086</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490354</v>
+        <v>3.025074842490326</v>
       </c>
       <c r="T18" t="n">
         <v>214.9701989459033</v>
@@ -28700,7 +28700,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28819,19 +28819,19 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886094</v>
+        <v>188.8004075352814</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2468265688547</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.516679853803154</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,16 +28843,16 @@
         <v>15.0436526801775</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688968</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
         <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28883,22 +28883,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>6.846506480668509</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>8.751880499048355</v>
+        <v>187.6402744627973</v>
       </c>
       <c r="T21" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>48.66568061834862</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29059,10 +29059,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802784</v>
+        <v>265.3154769886093</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273198</v>
+        <v>76.42047532699635</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895414</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>15.0436526801775</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.47023580633439</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S23" t="n">
         <v>297.4245917920612</v>
@@ -29123,7 +29123,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29132,10 +29132,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490426</v>
       </c>
       <c r="T24" t="n">
-        <v>30.75409797587687</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>150.5984258684005</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344421</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="27">
@@ -29360,19 +29360,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>117.2587939751768</v>
       </c>
       <c r="F27" t="n">
-        <v>127.4736565062041</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="28">
@@ -29439,19 +29439,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4669766680328</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>206.4462806410032</v>
+        <v>164.6083327704811</v>
       </c>
       <c r="G28" t="n">
-        <v>213.4669766680328</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>213.4669766680328</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
         <v>120.2289512774728</v>
@@ -29466,7 +29466,7 @@
         <v>25.19323846374673</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830505</v>
@@ -29478,28 +29478,28 @@
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="30">
@@ -29603,13 +29603,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.310035678014003</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
-        <v>182.1171940543086</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.3559377924154</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>156.8831753661607</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
@@ -29688,16 +29688,16 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>213.4669766680327</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L31" t="n">
-        <v>213.4669766680327</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M31" t="n">
         <v>25.19323846374673</v>
@@ -29718,25 +29718,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29843,13 +29843,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>7.727896528665241</v>
       </c>
       <c r="V33" t="n">
-        <v>69.28808047883535</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="34">
@@ -29919,19 +29919,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H34" t="n">
-        <v>213.4669766680327</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
-        <v>194.8930365578645</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587065</v>
+        <v>75.44060645142311</v>
       </c>
       <c r="L34" t="n">
         <v>32.12940745055727</v>
@@ -29946,34 +29946,34 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4669766680327</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R34" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30004,13 +30004,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0596768448573</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273198</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,28 +30019,28 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.835481713589</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0596768448573</v>
+        <v>86.39972550987576</v>
       </c>
       <c r="Q35" t="n">
-        <v>204.5908538636859</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>124.7582939258211</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
         <v>107.3572203790713</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>245.4874253036537</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30159,7 +30159,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
-        <v>165.8230575663656</v>
+        <v>201.3785132818903</v>
       </c>
       <c r="I37" t="n">
         <v>164.8484353357569</v>
@@ -30201,7 +30201,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
-        <v>272.0596768448573</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>272.0596768448573</v>
@@ -30210,7 +30210,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.7460668692857</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30244,7 +30244,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K38" t="n">
         <v>267.1428439929022</v>
@@ -30256,7 +30256,7 @@
         <v>178.7207068754858</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,16 +30265,16 @@
         <v>15.0436526801775</v>
       </c>
       <c r="Q38" t="n">
-        <v>224.8354830322656</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5093375700639</v>
+        <v>246.87178421118</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
         <v>272.0596768448573</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30320,7 +30320,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>72.49194463656802</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
         <v>52.45818464705465</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30362,13 +30362,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.24618910238263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>122.4252739219278</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30399,10 +30399,10 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8484353357569</v>
+        <v>200.4038910512816</v>
       </c>
       <c r="J40" t="n">
-        <v>155.7844069929974</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
         <v>67.01246855587065</v>
@@ -30484,28 +30484,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K41" t="n">
-        <v>240.9968149183972</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L41" t="n">
-        <v>240.9968149183972</v>
+        <v>78.94822627916975</v>
       </c>
       <c r="M41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P41" t="n">
-        <v>54.53995161096594</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9968149183972</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S41" t="n">
         <v>240.9968149183972</v>
@@ -30545,19 +30545,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>52.45818464705465</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>20.18415439048854</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.54894679730651</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30630,10 +30630,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7006242014745</v>
+        <v>191.1037475576453</v>
       </c>
       <c r="H43" t="n">
-        <v>165.8230575663656</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="I43" t="n">
         <v>164.8484353357569</v>
@@ -30642,7 +30642,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>170.1507465537877</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L43" t="n">
         <v>32.12940745055727</v>
@@ -30666,7 +30666,7 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4354176286827</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T43" t="n">
         <v>223.7609144406078</v>
@@ -30718,37 +30718,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802784</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>55.9431103211129</v>
+        <v>39.49629893078837</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8604380517429</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30779,16 +30779,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>32.20504350631177</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>24.10819071616436</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30882,10 +30882,10 @@
         <v>67.01246855587065</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>135.2676854484743</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3315164616638</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N46" t="n">
         <v>16.49709222984362</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865275</v>
+        <v>39.97444748840316</v>
       </c>
       <c r="K11" t="n">
-        <v>32.12134957080429</v>
+        <v>171.6451998062821</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221613</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5623770505815</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O11" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,7 +35498,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595872135</v>
+        <v>0.712728659587242</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87246835258296</v>
+        <v>11.87246835258298</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1469990738446</v>
+        <v>33.14699907384463</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233031</v>
+        <v>36.65350811233034</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610866</v>
+        <v>39.40276710610868</v>
       </c>
       <c r="G13" t="n">
-        <v>9.62902512308086</v>
+        <v>9.629025123080888</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879843</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708253</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>146.2002418739981</v>
       </c>
       <c r="M13" t="n">
-        <v>93.29621450449766</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947117</v>
+        <v>60.64116175114525</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.8692800099466</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.1252845810503</v>
+        <v>51.12528458105033</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>99.20600755040468</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
-        <v>188.5623770505815</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914317</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>74.46633889533028</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7127286595870999</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.87246835258284</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35790,40 +35790,40 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610866</v>
+        <v>39.40276710610854</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818957</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879843</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.10069804708242</v>
       </c>
       <c r="K16" t="n">
-        <v>16.1607610977112</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>146.200241873998</v>
+        <v>62.5272352683206</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608086</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8720697162503</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105019</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.427776873664</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221613</v>
+        <v>140.7606993562827</v>
       </c>
       <c r="M17" t="n">
-        <v>130.8065496093633</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N17" t="n">
         <v>76.14873730630111</v>
       </c>
       <c r="O17" t="n">
-        <v>188.5623770505815</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>102.5641537403183</v>
       </c>
       <c r="S17" t="n">
-        <v>69.91525422199729</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>74.96018130685094</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
@@ -36115,19 +36115,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.427776873664</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5623770505815</v>
+        <v>112.0473075972535</v>
       </c>
       <c r="K20" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>47.24579619221613</v>
       </c>
       <c r="M20" t="n">
-        <v>89.25436745294633</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N20" t="n">
         <v>76.14873730630111</v>
@@ -36139,16 +36139,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>47.27407718077497</v>
@@ -36209,7 +36209,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36355,10 +36355,10 @@
         <v>56.427776873664</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.73602580872316</v>
       </c>
       <c r="L23" t="n">
         <v>47.24579619221613</v>
@@ -36370,16 +36370,16 @@
         <v>76.14873730630111</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505814</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.794784829444715</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>69.91525422199729</v>
@@ -36443,10 +36443,10 @@
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570685</v>
       </c>
       <c r="N24" t="n">
-        <v>188.562377050581</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671758</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743337</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290726</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628984</v>
+        <v>18.60653861628973</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,19 +36735,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.79083545580778</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>67.51939842255653</v>
+        <v>25.68145055203446</v>
       </c>
       <c r="G28" t="n">
-        <v>44.76635246655832</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.6185413322759</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>196.9698844381891</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.0437926869758</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L29" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628987</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.739017127447345</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>11.70052511544998</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.54009444958615</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.61854133227587</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4545081121622</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3375692174755</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
         <v>260.7127728602489</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q32" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628983</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37215,19 +37215,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.76635246655832</v>
       </c>
       <c r="H34" t="n">
-        <v>47.64391910166712</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>30.04460122210768</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.23802539056</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.428137895552455</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.26261192452776</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646006</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
         <v>47.24579619221613</v>
@@ -37315,28 +37315,28 @@
         <v>81.73768759914317</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630111</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276103997</v>
+        <v>260.458394474629</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646798</v>
+        <v>71.35607282969826</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.9154028867963</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311433</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479334</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>49.595266359647</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357103</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.95066166040738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.604794055117319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>260.458394474629</v>
@@ -37552,7 +37552,7 @@
         <v>260.458394474629</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630111</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O38" t="n">
         <v>34.62291276103997</v>
@@ -37561,16 +37561,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.160032055376</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.19923879311433</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>19.36244664111609</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.595266359647</v>
       </c>
       <c r="U38" t="n">
         <v>21.90916223357103</v>
@@ -37695,10 +37695,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="J40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>126.1940224713859</v>
       </c>
       <c r="M41" t="n">
         <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630111</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276103997</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>39.49629893078844</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665429</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.4874773483333</v>
@@ -37926,10 +37926,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>22.40312335617088</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>75.17375735203161</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.56139728971457</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>49.25866080283971</v>
+        <v>32.81184941251517</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7345025175404</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N44" t="n">
         <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103997</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="M46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
